--- a/tableio-excel/src/test/resources/info/informationsea/tableio/excel/test/cellltypes.xlsx
+++ b/tableio-excel/src/test/resources/info/informationsea/tableio/excel/test/cellltypes.xlsx
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -54,6 +50,26 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>He</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>llo</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -65,7 +81,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,13 +97,54 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,18 +156,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,13 +509,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -459,12 +525,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -479,9 +545,9 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
         <v>3.4</v>
       </c>
       <c r="C3" t="b">
@@ -492,29 +558,29 @@
         <v>Hello1.0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="8" t="b">
         <f>AND(C2,C3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C5" s="11" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="2">
@@ -523,22 +589,28 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.5</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <f>B4+B2</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" location="iris.csv!A1:B2" display="iris.xlsx - iris.csv!A1:B2"/>
+    <hyperlink ref="C5" location="Sheet1!C1:C3" display="Sheet1!C1:C3"/>
+    <hyperlink ref="D6" r:id="rId3" display="mailto:test@example.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/tableio-excel/src/test/resources/info/informationsea/tableio/excel/test/cellltypes.xlsx
+++ b/tableio-excel/src/test/resources/info/informationsea/tableio/excel/test/cellltypes.xlsx
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,12 +155,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -174,6 +189,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -509,7 +525,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -550,7 +566,7 @@
       <c r="B3" s="11">
         <v>3.4</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" s="13" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="str">
